--- a/小畑GASシート.xlsx
+++ b/小畑GASシート.xlsx
@@ -34,40 +34,40 @@
     <t>userid?</t>
   </si>
   <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>最終更新日</t>
+  </si>
+  <si>
+    <t>小畑</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>次回更新日</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>原</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>植木</t>
+  </si>
+  <si>
     <t>●</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>最終更新日</t>
-  </si>
-  <si>
-    <t>小畑</t>
-  </si>
-  <si>
-    <t>次回更新日</t>
-  </si>
-  <si>
-    <t>林</t>
-  </si>
-  <si>
-    <t>原</t>
-  </si>
-  <si>
-    <t>設定</t>
-  </si>
-  <si>
-    <t>植木</t>
-  </si>
-  <si>
     <t>Chat通知</t>
   </si>
   <si>
     <t>永久に</t>
-  </si>
-  <si>
-    <t>ON</t>
   </si>
   <si>
     <t>大山</t>
@@ -127,10 +127,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -184,29 +190,29 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -435,179 +441,182 @@
     <col customWidth="1" min="9" max="9" width="8.88"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1"/>
+    </row>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="7">
+        <v>44696.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6">
-        <v>44746.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>44754.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>18</v>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="8"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="8"/>
     </row>
     <row r="15">
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16">
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -615,18 +624,18 @@
       <c r="G18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19">
-      <c r="F19" s="3"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="21">
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/小畑GASシート.xlsx
+++ b/小畑GASシート.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E4A055-5FDF-4E76-86C4-99F897838472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="WorkPlaceリマインドタスク運用" sheetId="1" r:id="rId4"/>
+    <sheet name="WorkPlaceリマインドタスク運用" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>名前</t>
   </si>
@@ -119,30 +128,50 @@
 確認後リアクションをお願いします。
 今後の予定(飯田→林→原)</t>
   </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,7 +180,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -167,7 +196,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -181,54 +216,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -418,33 +446,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.75"/>
-    <col customWidth="1" min="2" max="2" width="7.88"/>
-    <col customWidth="1" min="4" max="4" width="5.0"/>
-    <col customWidth="1" min="5" max="5" width="7.63"/>
-    <col customWidth="1" min="6" max="6" width="5.88"/>
-    <col customWidth="1" min="7" max="7" width="11.0"/>
-    <col customWidth="1" min="8" max="8" width="10.13"/>
-    <col customWidth="1" min="9" max="9" width="8.88"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.86328125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -476,10 +509,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>44696.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -494,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>44754.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -509,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -524,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -547,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -568,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -589,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
@@ -601,18 +634,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
       <c r="D11" s="6"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="15">
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G16" s="5" t="s">
         <v>26</v>
       </c>
@@ -620,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.35">
       <c r="G18" s="9" t="s">
         <v>27</v>
       </c>
@@ -631,23 +669,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F19" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="6:9" x14ac:dyDescent="0.35">
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9">
+  <phoneticPr fontId="3"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"次回だけ,永久に"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7:I9 E3:E10 H18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7:I9 E3:E10 H18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"OFF,ON"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/小畑GASシート.xlsx
+++ b/小畑GASシート.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E4A055-5FDF-4E76-86C4-99F897838472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="WorkPlaceリマインドタスク運用" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="WorkPlaceリマインドタスク運用" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>名前</t>
   </si>
@@ -64,13 +55,13 @@
     <t>原</t>
   </si>
   <si>
+    <t>●</t>
+  </si>
+  <si>
     <t>設定</t>
   </si>
   <si>
     <t>植木</t>
-  </si>
-  <si>
-    <t>●</t>
   </si>
   <si>
     <t>Chat通知</t>
@@ -128,50 +119,30 @@
 確認後リアクションをお願いします。
 今後の予定(飯田→林→原)</t>
   </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="3"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,7 +151,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,13 +167,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -216,47 +181,54 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -446,38 +418,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="4.75"/>
+    <col customWidth="1" min="2" max="2" width="7.88"/>
+    <col customWidth="1" min="4" max="4" width="5.0"/>
+    <col customWidth="1" min="5" max="5" width="7.63"/>
+    <col customWidth="1" min="6" max="6" width="5.88"/>
+    <col customWidth="1" min="7" max="7" width="11.0"/>
+    <col customWidth="1" min="8" max="8" width="10.13"/>
+    <col customWidth="1" min="9" max="9" width="8.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -509,10 +476,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>44696</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+        <v>44699.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -527,10 +494,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>44754</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+        <v>44754.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -542,31 +509,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -580,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -601,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -622,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
@@ -634,23 +601,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
       <c r="D11" s="6"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="G16" s="5" t="s">
         <v>26</v>
       </c>
@@ -658,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="G18" s="9" t="s">
         <v>27</v>
       </c>
@@ -669,25 +631,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="F19" s="4"/>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9">
       <formula1>"次回だけ,永久に"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7:I9 E3:E10 H18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I7:I9 E3:E10 H18">
       <formula1>"OFF,ON"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/小畑GASシート.xlsx
+++ b/小畑GASシート.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>名前</t>
   </si>
@@ -43,49 +43,46 @@
     <t>小畑</t>
   </si>
   <si>
+    <t>次回更新日</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>原</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>植木</t>
+  </si>
+  <si>
+    <t>Chat通知</t>
+  </si>
+  <si>
+    <t>永久に</t>
+  </si>
+  <si>
     <t>ON</t>
   </si>
   <si>
-    <t>次回更新日</t>
-  </si>
-  <si>
-    <t>林</t>
-  </si>
-  <si>
-    <t>原</t>
+    <t>大山</t>
+  </si>
+  <si>
+    <t>担当コマ移動</t>
+  </si>
+  <si>
+    <t>梅津</t>
+  </si>
+  <si>
+    <t>次回はGDに</t>
+  </si>
+  <si>
+    <t>江渕</t>
   </si>
   <si>
     <t>●</t>
-  </si>
-  <si>
-    <t>設定</t>
-  </si>
-  <si>
-    <t>植木</t>
-  </si>
-  <si>
-    <t>Chat通知</t>
-  </si>
-  <si>
-    <t>永久に</t>
-  </si>
-  <si>
-    <t>大山</t>
-  </si>
-  <si>
-    <t>担当コマ移動</t>
-  </si>
-  <si>
-    <t>梅津</t>
-  </si>
-  <si>
-    <t>次回はGDに</t>
-  </si>
-  <si>
-    <t>次回だけ</t>
-  </si>
-  <si>
-    <t>江渕</t>
   </si>
   <si>
     <t>GD</t>
@@ -102,13 +99,13 @@
   <si>
     <t>・週の始まりは、月曜固定ではなく、祝日・年末年始(12/29-1/3)は避ける。
 ・GAS最終更新日・次回更新予定日をシートに記載する。(次回更新予定日は実装できそうならやる)
-・メンバーは増えたり減ったりすることがある。(行が増える)
-・その人をスキップするフラグを追加(休職中に飛ばすなどを想定)
-・通知の動作を一時的に止められるよう、設定フラグを作る。(GAS自体は動作させ、動作日の変更は行う)
-・担当のコマ移動を一時的に止められるよう、設定フラグを作る。
-・次の週が担当の代わりに飯田がやることが決まっていれば飯田に通知が行くような設定フラグを作る
-・設定は、「次回だけ」の場合はON/OFFを切り替え、「永久に」へ変更した上で動作を終了させる。
-・全処理フラグを作成し、OFFの場合はすべての処理を省略する(関数のトリガーはさせて良い)
+●メンバーは増えたり減ったりすることがある。(行が増える)
+●その人をスキップするフラグを追加(休職中に飛ばすなどを想定)
+●通知の動作を一時的に止められるよう、設定フラグを作る。(GAS自体は動作させ、動作日の変更は行う)
+●担当のコマ移動を一時的に止められるよう、設定フラグを作る。
+●次の週が担当の代わりに飯田がやることが決まっていれば飯田に通知が行くような設定フラグを作る
+●設定は、「次回だけ」の場合はON/OFFを切り替え、「永久に」へ変更した上で動作を終了させる。
+●全処理フラグを作成し、OFFの場合はすべての処理を省略する(関数のトリガーはさせて良い)
 @小畑頌太朗
 今週のリマインド担当です、よろしくお願いします！
 確認後リアクションをお願いします。
@@ -476,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>44699.0</v>
+        <v>44703.0</v>
       </c>
     </row>
     <row r="4">
@@ -488,10 +485,10 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>44754.0</v>
@@ -499,36 +496,34 @@
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -538,18 +533,18 @@
         <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -559,18 +554,18 @@
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -580,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>7</v>
@@ -591,12 +586,14 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
@@ -609,12 +606,12 @@
     </row>
     <row r="15">
       <c r="G15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="G16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>6</v>
@@ -622,13 +619,13 @@
     </row>
     <row r="18">
       <c r="G18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -636,7 +633,7 @@
     </row>
     <row r="21">
       <c r="G21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/小畑GASシート.xlsx
+++ b/小畑GASシート.xlsx
@@ -70,6 +70,9 @@
     <t>大山</t>
   </si>
   <si>
+    <t>●</t>
+  </si>
+  <si>
     <t>担当コマ移動</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>江渕</t>
-  </si>
-  <si>
-    <t>●</t>
   </si>
   <si>
     <t>GD</t>
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>44703.0</v>
+        <v>44715.0</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="7">
-        <v>44754.0</v>
+        <v>44718.0</v>
       </c>
     </row>
     <row r="5">
@@ -549,12 +549,14 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>16</v>
@@ -565,7 +567,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -575,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
@@ -586,14 +588,12 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
